--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayakurayuki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayakurayuki/Documents/svn/admachine/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1375,7 +1375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1394,11 +1394,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1406,68 +1417,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1748,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,19 +1770,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1943,130 +1948,130 @@
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="16" t="s">
         <v>63</v>
       </c>
     </row>

--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>平台</t>
     <rPh sb="0" eb="1">
       <t>ping tai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口名称</t>
@@ -43,39 +43,39 @@
     <rPh sb="2" eb="3">
       <t>ming cheng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口URL</t>
     <rPh sb="0" eb="1">
       <t>jie kou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
       <t>can shu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
     <rPh sb="0" eb="1">
       <t>dong zuo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口描述</t>
     <rPh sb="0" eb="1">
       <t>jie kou miao shu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过机器识别码获取广告机对象信息</t>
@@ -94,11 +94,7 @@
     <rPh sb="12" eb="13">
       <t>dui xiang xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisementMachine/get/{codeNumber}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -114,7 +110,7 @@
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广告机后台接口列表</t>
@@ -130,7 +126,7 @@
     <rPh sb="7" eb="8">
       <t>lie biao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过机器识别码获取相应的且唯一的广告机信息</t>
@@ -164,11 +160,11 @@
     <rPh sb="19" eb="20">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>register</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广告机初次启动调用的注册接口</t>
@@ -190,22 +186,22 @@
     <rPh sb="12" eb="13">
       <t>jie kou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/serv/advertisementMachine/register</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
     <rPh sb="0" eb="1">
       <t>qing qiu fang shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -248,7 +244,7 @@
     <rPh sb="47" eb="48">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过传来的对象注册广告机</t>
@@ -270,24 +266,14 @@
     <rPh sb="9" eb="10">
       <t>guang gao ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属模块</t>
-    <rPh sb="0" eb="1">
-      <t>suo shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mo kuai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广告机</t>
     <rPh sb="0" eb="1">
       <t>guang gao ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过广告ID获取广告</t>
@@ -303,11 +289,11 @@
     <rPh sb="8" eb="9">
       <t>guang gao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/serv/advertisement/get/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -323,7 +309,7 @@
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过广告机获取到的列表中的某个广告的ID
@@ -367,11 +353,11 @@
     <rPh sb="27" eb="28">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/serv/advertisement/find/{codeNumber}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过机器识别码获取广告列表</t>
@@ -390,7 +376,7 @@
     <rPh sb="11" eb="12">
       <t>lie biao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取广告列表</t>
@@ -400,19 +386,19 @@
     <rPh sb="2" eb="3">
       <t>guang gao lie biao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>find</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>findList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>media</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>媒体接口</t>
@@ -422,11 +408,11 @@
     <rPh sb="2" eb="3">
       <t>jie kou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/serv/advertisement/media/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过广告机获取到的列表中的某个广告的ID
@@ -495,25 +481,14 @@
     <rPh sb="44" eb="45">
       <t>fan hui</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON输出</t>
-    <rPh sb="4" eb="5">
-      <t>shu chu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广告</t>
     <rPh sb="0" eb="1">
       <t>guang gao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -561,36 +536,36 @@
     <rPh sb="13" eb="14">
       <t>bu ke que shao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暂无</t>
     <rPh sb="0" eb="1">
       <t>zan wu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户</t>
     <rPh sb="0" eb="1">
       <t>yong hu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>auth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录认证</t>
     <rPh sb="0" eb="1">
       <t>deng lu ren zheng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/mob/auth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -628,7 +603,7 @@
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用账号密码登录到服务器
@@ -722,11 +697,11 @@
     <rPh sb="73" eb="74">
       <t>zhi xing jia mi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>self</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取个人信息</t>
@@ -736,43 +711,11 @@
     <rPh sb="2" eb="3">
       <t>ge ren xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mob/user/self</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Get/Post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">id: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-token: String</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过ID取得用户信息
@@ -814,7 +757,7 @@
     <rPh sb="37" eb="38">
       <t>shi yong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -828,20 +771,20 @@
   "phone": "13812638292",
   "remark": ""
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
   "id": 3,
   "token": "eyJwYXNzd29yZCI6ImMxMTlkYzdhZDkyZTg4MmVkYWI1ZmYxNjczYmE3ODE5Yjk2ZTljMzE1YjI0NjQyYWVmMTVjYmIxYTdlNjU3YjUiLCJhdXRobmFtZSI6InVzZXIifQ=="
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
   "responseCode": 1
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -858,14 +801,14 @@
   "checked": 0,
   "remark": ""
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机端</t>
     <rPh sb="0" eb="1">
       <t>shou ji duan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过ID获取广告机信息</t>
@@ -881,61 +824,7 @@
     <rPh sb="9" eb="10">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mob/advertisementMachine/get/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过ID获取广告机信息
-这个ID是在手机端获取到的广告机列表中拿到</t>
-    <rPh sb="0" eb="1">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xin xi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhe ge</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shou ji duan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>huo qu de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>de</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>na dao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过用户ID获取广告机列表</t>
@@ -954,78 +843,7 @@
     <rPh sb="11" eb="12">
       <t>lie biao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mob/advertisementMachine/find/{userID}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">userID: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过用户ID获取广告机列表
-这个用户ID可以从self获取
-建议self获取的数据存入APP的applicationContext</t>
-    <rPh sb="0" eb="1">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhe ge</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ke yi cong</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jian yi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>de</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>cun ru</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[
@@ -1044,11 +862,7 @@
     "remark": ""
   }
 ]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mob/advertisementMachine/position/query</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给定两点查询矩形范围内的广告机</t>
@@ -1076,15 +890,60 @@
     <rPh sb="12" eb="13">
       <t>guang gao ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>positionQuery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">minLongitude: String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/get/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电状态修改</t>
+    <rPh sb="0" eb="1">
+      <t>chong dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisement/charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
     </r>
     <r>
       <rPr>
@@ -1106,7 +965,387 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-minLatitude: String </t>
+operate: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过广告机ID修改充电状态
+operate的参数为
+0: 闲置
+1: 充电</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chong dian zhuang tai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chong dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "message": "充电结束，闲置中。",
+  "responseCode": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON输出范例</t>
+    <rPh sb="4" eb="5">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentEnvironmentStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateEnvironmentStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录的环境传感器数据</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan jing chuan gan qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新环境传感器数据到数据库</t>
+    <rPh sb="0" eb="1">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan jing chuan gan qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu ju ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/environment/status/{machineID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/environment/update/{machineID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="1">
+      <t>mo kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">machineID: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">machineID: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">temperature: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+humidity: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+pm25: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+pm10: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库中记录的传感器记录
+记录内容是上一次提交的更新
+不保留历史记录</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu ju ku zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji lu de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuan gan qi ji lu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei ron</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shang yi ci</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bu bao liu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>li shi ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将传感器获取到的数据更新到数据库
+所有参数都是必填参数
+如果缺少某个参数，一样需要提交一个空字符串</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chuan gan qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo qu dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>geng xin dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu ju ku</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bi tian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mou ge</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>yi yang xu yao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>kong zi fu chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 1,
+  "temperature": "",
+  "humidity": "",
+  "pm25": "",
+  "pm10": "",
+  "machineID": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无JSON输出</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/user/self/{id}/{token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: String </t>
     </r>
     <r>
       <rPr>
@@ -1128,7 +1367,218 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-maxLongitude: String </t>
+token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>token: String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ID获取广告机信息
+这个ID是在手机端获取到的广告机列表中拿到
+预留token用于验证客户端身份
+测试/演示阶段暂不使用token</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shou ji duan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>huo qu de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>na dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu liu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yong yu yan z</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ke hu duan shen f</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yan shi jie duan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>zan bu shi yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过用户ID获取广告机列表
+这个用户ID可以从self获取
+建议self获取的数据存入APP的applicationContext
+预留token用于验证客户端身份
+测试/演示阶段暂不使用token</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ke yi cong</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jian yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cun ru</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">userID: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>token: String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">token: String </t>
     </r>
     <r>
       <rPr>
@@ -1150,6 +1600,72 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+minLongitude: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+minLatitude: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+maxLongitude: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 maxLatitude: String </t>
     </r>
     <r>
@@ -1162,12 +1678,14 @@
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给定两点，两点是对角点
 数值较小的参数为min，数值较大的数为max
-建议从Double转换为String</t>
+建议从Double转换为String
+预留token用于验证客户端身份
+测试/演示阶段暂不使用token</t>
     <rPh sb="0" eb="1">
       <t>gei ding liang dian</t>
     </rPh>
@@ -1219,25 +1737,229 @@
     <rPh sb="44" eb="45">
       <t>zhuan huan wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关灯所用的接口</t>
+    <rPh sb="0" eb="1">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+operate: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "message": "关灯！",
+  "responseCode": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">machineID: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户通过客户端控制灯的开关
+operate的参数如下
+0: 关灯
+1: 开灯
+预留token用于验证客户端身份
+测试/演示阶段暂不使用token</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke hu duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ru xia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>guan d</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>kai d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库中记录的传感器记录
+记录内容是上一次提交的更新
+不保留历史记录
+预留token用于验证客户端身份
+测试/演示阶段暂不使用token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/get/{id}/{token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/find/{userID}/{token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/environment/{machineID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/position/query/{token}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "temperature": "",
+    "humidity": "",
+    "pm25": "",
+    "pm10": "",
+    "machineID": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/light/{id}/{operate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1293,6 +2015,28 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1417,19 +2161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,22 +2176,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,10 +2191,31 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1751,18 +2495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="43.5" style="1" customWidth="1"/>
@@ -1770,357 +2514,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="G17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2129,7 +2953,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2138,7 +2962,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2147,7 +2971,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2156,7 +2980,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2165,7 +2989,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2174,7 +2998,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2183,7 +3007,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2192,7 +3016,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2201,7 +3025,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2210,7 +3034,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2219,7 +3043,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2228,7 +3052,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2237,7 +3061,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2246,7 +3070,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2291,18 +3115,63 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A11:A17"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>平台</t>
     <rPh sb="0" eb="1">
@@ -94,22 +94,6 @@
     <rPh sb="12" eb="13">
       <t>dui xiang xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">codeNumber: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,10 +337,6 @@
     <rPh sb="27" eb="28">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisement/find/{codeNumber}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1949,6 +1929,30 @@
   </si>
   <si>
     <t>/mob/machine/light/{id}/{operate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisement/find/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: String/int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2194,16 +2198,19 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2212,10 +2219,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2497,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,26 +2518,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2545,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -2554,15 +2558,15 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>18</v>
+      <c r="A3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2571,377 +2575,377 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19" t="s">
-        <v>32</v>
+      <c r="A8" s="21"/>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="D11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="H12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21" t="s">
-        <v>18</v>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="8" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="F16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">

--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>平台</t>
     <rPh sb="0" eb="1">
@@ -170,10 +170,6 @@
     <rPh sb="12" eb="13">
       <t>jie kou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisementMachine/register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/serv/advertisement/get/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">id: String </t>
     </r>
@@ -388,10 +380,6 @@
     <rPh sb="2" eb="3">
       <t>jie kou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisement/media/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -877,26 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">id: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisementMachine/get/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>charge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,10 +879,6 @@
     <rPh sb="4" eb="5">
       <t>xiu gai</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisement/charge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1057,14 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/serv/advertisementMachine/environment/status/{machineID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisementMachine/environment/update/{machineID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
       <t>mo kuai</t>
@@ -1073,118 +1029,6 @@
   </si>
   <si>
     <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">machineID: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">machineID: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">temperature: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-humidity: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-pm25: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-pm10: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1810,44 +1654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">machineID: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-token: String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户通过客户端控制灯的开关
 operate的参数如下
 0: 关灯
@@ -1893,23 +1699,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询数据库中记录的传感器记录
-记录内容是上一次提交的更新
-不保留历史记录
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/mob/machine/get/{id}/{token}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/mob/machine/find/{userID}/{token}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mob/machine/environment/{machineID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1932,10 +1726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/serv/advertisement/find/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1953,6 +1743,247 @@
       </rPr>
       <t>*</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">temperature: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+humidity: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+pm25: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+pm10: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/environment/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告机ID进行查询
+查询数据库中记录的传感器记录
+记录内容是上一次提交的更新
+不保留历史记录
+预留token用于验证客户端身份
+测试/演示阶段暂不使用token</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin xing cha x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/get/{id}
+例：
+/serv/advertisementMachine/get/1</t>
+    <rPh sb="37" eb="38">
+      <t>li ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisement/charge
+例：
+关灯操作，Get：/serv/advertisement/charge?id=1&amp;operate=0</t>
+    <rPh sb="28" eb="29">
+      <t>li zi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>guan deng</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>cao zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/environment/status/{id}
+例：
+/serv/advertisementMachine/environment/status/30</t>
+    <rPh sb="52" eb="53">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/environment/update/{id}
+例：
+/serv/advertisementMachine/environment/update/30
+?temperature=10&amp;humidity=10&amp;pm25=1&amp;pm10=1</t>
+    <rPh sb="52" eb="53">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisementMachine/register
+例：
+/serv/advertisementMachine/register?codeNumber=1111111111</t>
+    <rPh sb="37" eb="38">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisement/get/{id}
+例：
+/serv/advertisement/get/1</t>
+    <rPh sb="30" eb="31">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisement/media/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/serv/advertisement/find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2502,7 +2533,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2527,7 +2558,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -2537,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2549,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -2558,15 +2589,15 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2574,95 +2605,95 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>54</v>
+      <c r="E3" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="19"/>
       <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="19"/>
       <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -2674,278 +2705,278 @@
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
+      <c r="E7" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>98</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="20"/>
       <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="I11" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="I12" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="15"/>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">

--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>平台</t>
     <rPh sb="0" eb="1">
@@ -683,48 +683,6 @@
   </si>
   <si>
     <t>Get/Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过ID取得用户信息
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <rPh sb="0" eb="1">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qu de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yong hu xin xi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yu liu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yong yu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yan zheng</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ke hu duan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shen fen</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ce shi jie duan</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>yan shi</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>zan bu</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>shi yong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,13 +696,6 @@
   "addTime": "2018-01-12 12:53:32",
   "phone": "13812638292",
   "remark": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "id": 3,
-  "token": "eyJwYXNzd29yZCI6ImMxMTlkYzdhZDkyZTg4MmVkYWI1ZmYxNjczYmE3ODE5Yjk2ZTljMzE1YjI0NjQyYWVmMTVjYmIxYTdlNjU3YjUiLCJhdXRobmFtZSI6InVzZXIifQ=="
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,129 +1193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通过ID获取广告机信息
-这个ID是在手机端获取到的广告机列表中拿到
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <rPh sb="0" eb="1">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xin xi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhe ge</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shou ji duan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>huo qu de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>de</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>na dao</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>yu liu</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>yong yu yan z</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ke hu duan shen f</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>yan shi jie duan</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>zan bu shi yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过用户ID获取广告机列表
-这个用户ID可以从self获取
-建议self获取的数据存入APP的applicationContext
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <rPh sb="0" eb="1">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lie biao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhe ge</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ke yi cong</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>jian yi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>huo qu</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>de</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>cun ru</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">userID: String </t>
     </r>
@@ -1502,65 +1330,6 @@
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定两点，两点是对角点
-数值较小的参数为min，数值较大的数为max
-建议从Double转换为String
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <rPh sb="0" eb="1">
-      <t>gei ding liang dian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>liang dian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dui jiao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shu zhi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jiao xiao</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>can shu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>shu zhi jiao da</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>de</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>jian yi</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>zhuan huan wei</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1651,51 +1420,6 @@
   "message": "关灯！",
   "responseCode": 0
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户通过客户端控制灯的开关
-operate的参数如下
-0: 关灯
-1: 开灯
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <rPh sb="0" eb="1">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ke hu duan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kong zhi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>kai guan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>de</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>can shu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ru xia</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>guan d</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>kai d</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1900,24 +1624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用广告机ID进行查询
-查询数据库中记录的传感器记录
-记录内容是上一次提交的更新
-不保留历史记录
-预留token用于验证客户端身份
-测试/演示阶段暂不使用token</t>
-    <rPh sb="0" eb="1">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jin xing cha x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/serv/advertisementMachine/get/{id}
 例：
 /serv/advertisementMachine/get/1</t>
@@ -1984,6 +1690,691 @@
   </si>
   <si>
     <t>/serv/advertisement/find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取广告详情</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/ad/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告ID获取广告详情
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang gao xiang qing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shen fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两点，两点是对角点
+数值较小的参数为min，数值较大的数为max
+建议从Double转换为String
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>gei ding liang dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liang dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui jiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jiao xiao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shu zhi jiao da</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jian yi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhuan huan wei</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>yan zheng shen f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告机ID进行查询
+查询数据库中记录的传感器记录
+记录内容是上一次提交的更新
+不保留历史记录
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin xing cha x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户通过客户端控制灯的开关
+operate的参数如下
+0: 关灯
+1: 开灯
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke hu duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ru xia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>guan d</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>kai d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过用户ID获取广告机列表
+这个用户ID可以从self获取
+建议self获取的数据存入APP的applicationContext
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ke yi cong</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jian yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cun ru</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ID获取广告机信息
+这个ID是在手机端获取到的广告机列表中拿到
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shou ji duan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>huo qu de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>na dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ID取得用户信息
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong hu xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除广告
+（不是删除媒体，是整个删除）</t>
+    <rPh sb="0" eb="1">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei ti</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zheng ge shan chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/ad/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告ID删除广告
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yan zheng shen f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询广告列表</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/ad/find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">machineID: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告机ID查询全部属于该机器的广告
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji qi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yan zheng shen f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadMedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传广告媒体文件</t>
+    <rPh sb="0" eb="1">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/ad/uploadMedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+token: String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>媒体文件</t>
+    </r>
+    <rPh sb="26" eb="27">
+      <t>mei ti wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告ID指定需要上传媒体的广告
+token验证身份
+接口使用MultipartHttpServletRequest接受媒体文件</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mei ti</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yan zheng shen f</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>jie shou de</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>mei ti wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manualPush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动推送广告</t>
+    <rPh sb="0" eb="1">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guang gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/ad/manualPush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用广告ID指定推送广告</t>
+    <rPh sb="0" eb="1">
+      <t>shi yng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guang gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 3,
+  "token": "eyJwYXNzd29yZCI6ImMxMTlkYzdhZDkyZTg4MmVkYWI1ZmYxNjczYmE3ODE5Yjk2ZTljMzE1YjI0NjQyYWVmMTVjYmIxYTdlNjU3YjUiLCJhdXRobmFtZSI6InVzZXIifQ=="
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 2,
+    "name": "111",
+    "url": "images/2018-01-17_18-28-17_No1.jpg",
+    "time": 10,
+    "addTime": "2018-01-17 09:27:18",
+    "machineID": 30,
+    "userID": 4,
+    "remark": "ggg"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 2,
+        "name": "111",
+        "url": "images/2018-01-17_18-28-17_No1.jpg",
+        "time": 10,
+        "addTime": "2018-01-17 09:27:18",
+        "machineID": 30,
+        "userID": 4,
+        "remark": "ggg"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "message": "手动推送",
+    "responseCode": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "message": "新广告媒体",
+    "responseCode": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "message": "删除成功",
+    "responseCode": 0
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2154,7 +2545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2184,6 +2575,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2199,43 +2599,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,6 +2619,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2530,45 +2930,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="50" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="43.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="78" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -2589,440 +2989,522 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="D6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="6" t="s">
+      <c r="G13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="E18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
+      <c r="I18" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="D19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
@@ -3195,11 +3677,39 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A11:A22"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A11:A17"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:B7"/>

--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2382,7 +2382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2463,6 +2463,24 @@
       <color theme="1"/>
       <name val="DengXian (正文)"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2585,8 +2603,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2597,30 +2619,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,9 +2651,37 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2932,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="50" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2949,19 +2975,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2993,516 +3019,516 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I16" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="14" t="s">
+    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+      <c r="G17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="20" t="s">
+      <c r="C18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="160" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="D19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="192" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="G19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="G20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3707,14 +3733,14 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/接口列表.xlsx
+++ b/doc/接口列表.xlsx
@@ -837,78 +837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">id: int </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-operate: int </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过广告机ID修改充电状态
-operate的参数为
-0: 闲置
-1: 充电</t>
-    <rPh sb="0" eb="1">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guang gao ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiu gai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chong dian zhuang tai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>de</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>can shu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>xian zhi</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chong dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "message": "充电结束，闲置中。",
   "responseCode": 0
@@ -1629,21 +1557,6 @@
 /serv/advertisementMachine/get/1</t>
     <rPh sb="37" eb="38">
       <t>li ru</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/serv/advertisement/charge
-例：
-关灯操作，Get：/serv/advertisement/charge?id=1&amp;operate=0</t>
-    <rPh sb="28" eb="29">
-      <t>li zi</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>guan deng</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>cao zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2375,6 +2288,114 @@
     "message": "删除成功",
     "responseCode": 0
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">id: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+operate: int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>token: String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过广告机ID修改充电状态
+operate的参数为
+0: 闲置
+1: 充电
+token验证身份</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guang gao ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chong dian zhuang tai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chong dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mob/machine/charge/{id}/{operate}
+例：
+关灯操作，Get：/mob/machine/charge?id=1&amp;operate=0</t>
+    <rPh sb="36" eb="37">
+      <t>li zi</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>guan deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cao zuo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2958,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -3015,7 +3036,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="224" x14ac:dyDescent="0.2">
@@ -3032,13 +3053,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>9</v>
@@ -3051,47 +3072,47 @@
       <c r="A4" s="21"/>
       <c r="B4" s="19"/>
       <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="19"/>
       <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>29</v>
@@ -3107,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>38</v>
@@ -3134,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -3159,13 +3180,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>20</v>
@@ -3184,7 +3205,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -3196,7 +3217,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -3225,7 +3246,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="176" x14ac:dyDescent="0.2">
@@ -3238,16 +3259,16 @@
         <v>37</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>39</v>
@@ -3265,16 +3286,16 @@
         <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>41</v>
@@ -3290,16 +3311,16 @@
         <v>44</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>45</v>
@@ -3309,53 +3330,53 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10" t="s">
@@ -3365,19 +3386,19 @@
         <v>49</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
@@ -3390,16 +3411,16 @@
         <v>46</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>45</v>
@@ -3411,25 +3432,25 @@
         <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="G18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="I18" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="192" x14ac:dyDescent="0.2">
@@ -3439,97 +3460,97 @@
         <v>22</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="I19" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="I20" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="14"/>
       <c r="C21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="I21" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="I22" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
